--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H2">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I2">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J2">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N2">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O2">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P2">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q2">
-        <v>28.93671678619663</v>
+        <v>42.96340579253099</v>
       </c>
       <c r="R2">
-        <v>28.93671678619663</v>
+        <v>386.6706521327789</v>
       </c>
       <c r="S2">
-        <v>0.01238154186983124</v>
+        <v>0.01542585992178012</v>
       </c>
       <c r="T2">
-        <v>0.01238154186983124</v>
+        <v>0.01890900892014567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H3">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I3">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J3">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N3">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O3">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P3">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q3">
-        <v>70.71711574271934</v>
+        <v>75.96599254483665</v>
       </c>
       <c r="R3">
-        <v>70.71711574271934</v>
+        <v>683.6939329035299</v>
       </c>
       <c r="S3">
-        <v>0.03025868262635288</v>
+        <v>0.02727532275896439</v>
       </c>
       <c r="T3">
-        <v>0.03025868262635288</v>
+        <v>0.03343407265230717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H4">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I4">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J4">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N4">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O4">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P4">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q4">
-        <v>47.88452072975515</v>
+        <v>56.69002501314734</v>
       </c>
       <c r="R4">
-        <v>47.88452072975515</v>
+        <v>510.210225118326</v>
       </c>
       <c r="S4">
-        <v>0.02048899336828298</v>
+        <v>0.02035435433210113</v>
       </c>
       <c r="T4">
-        <v>0.02048899336828298</v>
+        <v>0.02495035411841671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H5">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I5">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J5">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N5">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O5">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P5">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q5">
-        <v>50.05148467833412</v>
+        <v>53.91804694730634</v>
       </c>
       <c r="R5">
-        <v>50.05148467833412</v>
+        <v>485.262422525757</v>
       </c>
       <c r="S5">
-        <v>0.02141620135314131</v>
+        <v>0.01935908534536396</v>
       </c>
       <c r="T5">
-        <v>0.02141620135314131</v>
+        <v>0.02373035405076501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H6">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I6">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J6">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N6">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O6">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P6">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q6">
-        <v>17.86427850018189</v>
+        <v>18.7027925521935</v>
       </c>
       <c r="R6">
-        <v>17.86427850018189</v>
+        <v>112.216755313161</v>
       </c>
       <c r="S6">
-        <v>0.007643828906320113</v>
+        <v>0.006715171964006752</v>
       </c>
       <c r="T6">
-        <v>0.007643828906320113</v>
+        <v>0.005487635576950181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H7">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J7">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N7">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O7">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P7">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q7">
-        <v>126.525604909042</v>
+        <v>202.482245675605</v>
       </c>
       <c r="R7">
-        <v>126.525604909042</v>
+        <v>1822.340211080445</v>
       </c>
       <c r="S7">
-        <v>0.05413821085377313</v>
+        <v>0.07270053900108525</v>
       </c>
       <c r="T7">
-        <v>0.05413821085377313</v>
+        <v>0.08911627276803905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H8">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J8">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N8">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O8">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P8">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q8">
-        <v>309.2101261134935</v>
+        <v>358.0201448584611</v>
       </c>
       <c r="R8">
-        <v>309.2101261134935</v>
+        <v>3222.18130372615</v>
       </c>
       <c r="S8">
-        <v>0.1323058918998125</v>
+        <v>0.1285458753067979</v>
       </c>
       <c r="T8">
-        <v>0.1323058918998125</v>
+        <v>0.1575714491865863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H9">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J9">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N9">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O9">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P9">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q9">
-        <v>209.3747537385413</v>
+        <v>267.1744327602589</v>
       </c>
       <c r="R9">
-        <v>209.3747537385413</v>
+        <v>2404.56989484233</v>
       </c>
       <c r="S9">
-        <v>0.08958798951012892</v>
+        <v>0.09592804151381554</v>
       </c>
       <c r="T9">
-        <v>0.08958798951012892</v>
+        <v>0.1175885300316872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H10">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J10">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N10">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O10">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P10">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q10">
-        <v>218.8497894323222</v>
+        <v>254.1103766552706</v>
       </c>
       <c r="R10">
-        <v>218.8497894323222</v>
+        <v>2286.993389897435</v>
       </c>
       <c r="S10">
-        <v>0.09364220036022285</v>
+        <v>0.09123743806261381</v>
       </c>
       <c r="T10">
-        <v>0.09364220036022285</v>
+        <v>0.1118387914142368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H11">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J11">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N11">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O11">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P11">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q11">
-        <v>78.1114409143096</v>
+        <v>88.14439559704249</v>
       </c>
       <c r="R11">
-        <v>78.1114409143096</v>
+        <v>528.8663735822549</v>
       </c>
       <c r="S11">
-        <v>0.03342259190423144</v>
+        <v>0.03164793559281393</v>
       </c>
       <c r="T11">
-        <v>0.03342259190423144</v>
+        <v>0.02586267905379571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H12">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I12">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J12">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N12">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O12">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P12">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q12">
-        <v>158.4215354254688</v>
+        <v>0.597473266257</v>
       </c>
       <c r="R12">
-        <v>158.4215354254688</v>
+        <v>5.377259396313</v>
       </c>
       <c r="S12">
-        <v>0.06778595126897984</v>
+        <v>0.0002145206773595956</v>
       </c>
       <c r="T12">
-        <v>0.06778595126897984</v>
+        <v>0.0002629593048502273</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H13">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I13">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J13">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N13">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O13">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P13">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q13">
-        <v>387.1591286460768</v>
+        <v>1.05642578499</v>
       </c>
       <c r="R13">
-        <v>387.1591286460768</v>
+        <v>9.50783206491</v>
       </c>
       <c r="S13">
-        <v>0.1656589791107688</v>
+        <v>0.000379305966936294</v>
       </c>
       <c r="T13">
-        <v>0.1656589791107688</v>
+        <v>0.0004649530041522112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H14">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I14">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J14">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N14">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O14">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P14">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q14">
-        <v>262.1561856229363</v>
+        <v>0.7883633474580002</v>
       </c>
       <c r="R14">
-        <v>262.1561856229363</v>
+        <v>7.095270127122001</v>
       </c>
       <c r="S14">
-        <v>0.112172290060011</v>
+        <v>0.0002830590904286957</v>
       </c>
       <c r="T14">
-        <v>0.112172290060011</v>
+        <v>0.0003469736463953883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H15">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I15">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J15">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N15">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O15">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P15">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q15">
-        <v>274.0197898625602</v>
+        <v>0.7498146626310001</v>
       </c>
       <c r="R15">
-        <v>274.0197898625602</v>
+        <v>6.748331963679001</v>
       </c>
       <c r="S15">
-        <v>0.1172485298319702</v>
+        <v>0.0002692183205609231</v>
       </c>
       <c r="T15">
-        <v>0.1172485298319702</v>
+        <v>0.0003300076398182201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J16">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.2008685</v>
+      </c>
+      <c r="N16">
+        <v>20.401737</v>
+      </c>
+      <c r="O16">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P16">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q16">
+        <v>0.2600915441445</v>
+      </c>
+      <c r="R16">
+        <v>1.560549264867</v>
+      </c>
+      <c r="S16">
+        <v>9.338495523811663E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.631414436791536E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.070754</v>
+      </c>
+      <c r="H17">
+        <v>20.141508</v>
+      </c>
+      <c r="I17">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J17">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.433081</v>
+      </c>
+      <c r="N17">
+        <v>70.29924299999999</v>
+      </c>
+      <c r="O17">
+        <v>0.173071867147068</v>
+      </c>
+      <c r="P17">
+        <v>0.1775303340800033</v>
+      </c>
+      <c r="Q17">
+        <v>235.988794213074</v>
+      </c>
+      <c r="R17">
+        <v>1415.932765278444</v>
+      </c>
+      <c r="S17">
+        <v>0.08473094754684302</v>
+      </c>
+      <c r="T17">
+        <v>0.0692420930869683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.070754</v>
+      </c>
+      <c r="H18">
+        <v>20.141508</v>
+      </c>
+      <c r="I18">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J18">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>41.43333666666666</v>
+      </c>
+      <c r="N18">
+        <v>124.30001</v>
+      </c>
+      <c r="O18">
+        <v>0.3060180152594135</v>
+      </c>
+      <c r="P18">
+        <v>0.3139012791567009</v>
+      </c>
+      <c r="Q18">
+        <v>417.26494096918</v>
+      </c>
+      <c r="R18">
+        <v>2503.58964581508</v>
+      </c>
+      <c r="S18">
+        <v>0.1498175112267149</v>
+      </c>
+      <c r="T18">
+        <v>0.1224308043136551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="H16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="I16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="J16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.1819207408475</v>
-      </c>
-      <c r="N16">
-        <v>10.1819207408475</v>
-      </c>
-      <c r="O16">
-        <v>0.08291453788672445</v>
-      </c>
-      <c r="P16">
-        <v>0.08291453788672445</v>
-      </c>
-      <c r="Q16">
-        <v>97.80261009490242</v>
-      </c>
-      <c r="R16">
-        <v>97.80261009490242</v>
-      </c>
-      <c r="S16">
-        <v>0.0418481170761729</v>
-      </c>
-      <c r="T16">
-        <v>0.0418481170761729</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.070754</v>
+      </c>
+      <c r="H19">
+        <v>20.141508</v>
+      </c>
+      <c r="I19">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J19">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.91984733333334</v>
+      </c>
+      <c r="N19">
+        <v>92.75954200000001</v>
+      </c>
+      <c r="O19">
+        <v>0.228367567622981</v>
+      </c>
+      <c r="P19">
+        <v>0.2342504951350344</v>
+      </c>
+      <c r="Q19">
+        <v>311.3861762115561</v>
+      </c>
+      <c r="R19">
+        <v>1868.317057269336</v>
+      </c>
+      <c r="S19">
+        <v>0.1118021126866357</v>
+      </c>
+      <c r="T19">
+        <v>0.09136463733853505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.070754</v>
+      </c>
+      <c r="H20">
+        <v>20.141508</v>
+      </c>
+      <c r="I20">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J20">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>29.40795633333333</v>
+      </c>
+      <c r="N20">
+        <v>88.22386900000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2172010548501686</v>
+      </c>
+      <c r="P20">
+        <v>0.2227963242420754</v>
+      </c>
+      <c r="Q20">
+        <v>296.160293875742</v>
+      </c>
+      <c r="R20">
+        <v>1776.961763254452</v>
+      </c>
+      <c r="S20">
+        <v>0.1063353131216299</v>
+      </c>
+      <c r="T20">
+        <v>0.08689717113725533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.070754</v>
+      </c>
+      <c r="H21">
+        <v>20.141508</v>
+      </c>
+      <c r="I21">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J21">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.2008685</v>
+      </c>
+      <c r="N21">
+        <v>20.401737</v>
+      </c>
+      <c r="O21">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P21">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q21">
+        <v>102.730437249849</v>
+      </c>
+      <c r="R21">
+        <v>410.921748999396</v>
+      </c>
+      <c r="S21">
+        <v>0.03688500260831016</v>
+      </c>
+      <c r="T21">
+        <v>0.02009493861107218</v>
       </c>
     </row>
   </sheetData>
